--- a/src/main/java/main/result/Airtable_Base_Data.xlsx
+++ b/src/main/java/main/result/Airtable_Base_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="399">
   <si>
     <t>Full Name</t>
   </si>
@@ -41,23 +41,23 @@
     <t>2022-07-09T07:58:35+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Tan chảy 🥰
+    <t xml:space="preserve">Tan chảy ??
 </t>
   </si>
   <si>
     <t>2023-10-21T08:35:05+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Our youth 🔥
+    <t xml:space="preserve">Our youth ??
 </t>
   </si>
   <si>
     <t>2023-07-12T13:03:19+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">[🌎 BK ECOGREEN 4TH 🌎]
-🌿 Vòng 1: Sức sống nhỏ bé nhưng vô cùng mãnh liệt
-📌 Link sự kiện: bit.ly/BKEcoGreen4th
+    <t xml:space="preserve">[?? BK ECOGREEN 4TH ??]
+?? Vòng 1: Sức sống nhỏ bé nhưng vô cùng mãnh liệt
+?? Link sự kiện: bit.ly/BKEcoGreen4th
 #HSVBKHN #BKECOGREEN4th #BeGreenBeNatural
 </t>
   </si>
@@ -65,8 +65,8 @@
     <t>2024-03-31T14:29:38+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Here’s your Xmas gift 🎅🏻🎄
-📸: người anh tốt bụng Bùi Dũng
+    <t xml:space="preserve">Here’s your Xmas gift ??????
+??: người anh tốt bụng Bùi Dũng
 </t>
   </si>
   <si>
@@ -87,7 +87,14 @@
     <t>2023-06-02T13:01:58+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Quá tuyệt vời 🔥 Cảm ơn!
+    <t xml:space="preserve">Ca sĩ Phúc Lâm thì không mời?
+</t>
+  </si>
+  <si>
+    <t>2023-11-09T14:55:48+0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quá tuyệt vời ?? Cảm ơn!
 #hoitraik67 #pantheum
 </t>
   </si>
@@ -109,20 +116,27 @@
     <t>2023-08-04T16:39:05+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Khu quân sự có điều hoà khum nhỉ 🥲
+    <t xml:space="preserve">Khu quân sự có điều hoà khum nhỉ ??
 </t>
   </si>
   <si>
     <t>2023-03-18T12:33:11+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">👀
+    <t xml:space="preserve">??
 </t>
   </si>
   <si>
     <t>2023-10-21T03:31:11+0000</t>
   </si>
   <si>
+    <t xml:space="preserve">Lạc trên bản đồ vào một ngày đầy nắng ??️
+</t>
+  </si>
+  <si>
+    <t>2024-03-09T15:10:16+0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ừ thì cũng…
 </t>
   </si>
@@ -130,14 +144,14 @@
     <t>2023-03-09T14:36:18+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">😶‍🌫️
+    <t xml:space="preserve">??‍??️
 </t>
   </si>
   <si>
     <t>2023-11-25T07:13:24+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Ninh Bình đẹp cả người lẫn cảnh 😗
+    <t xml:space="preserve">Ninh Bình đẹp cả người lẫn cảnh ??
 </t>
   </si>
   <si>
@@ -151,14 +165,21 @@
     <t>2022-11-06T13:38:32+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">cho ké chỗ gần ca sĩ nhé 👍🏻
+    <t xml:space="preserve">trượt…
+</t>
+  </si>
+  <si>
+    <t>2024-06-14T06:29:33+0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cho ké chỗ gần ca sĩ nhé ????
 </t>
   </si>
   <si>
     <t>2024-04-24T13:50:20+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">giao bán các mặt hàng trong ảnh 👍🏻
+    <t xml:space="preserve">giao bán các mặt hàng trong ảnh ????
 </t>
   </si>
   <si>
@@ -179,14 +200,21 @@
     <t>2023-09-20T14:24:00+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Đau lưng, mỏi gối, tay hơi tê nma khan giọng 💀
+    <t xml:space="preserve">chả vui ????
+</t>
+  </si>
+  <si>
+    <t>2024-04-18T13:06:25+0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đau lưng, mỏi gối, tay hơi tê nma khan giọng ??
 </t>
   </si>
   <si>
     <t>2023-07-22T11:31:05+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">I got it 🙆🏻‍♂️🙆🏻‍♂️🙆🏻‍♂️
+    <t xml:space="preserve">I got it ????‍♂️????‍♂️????‍♂️
 </t>
   </si>
   <si>
@@ -200,6 +228,13 @@
     <t>2022-07-14T18:48:38+0000</t>
   </si>
   <si>
+    <t xml:space="preserve">??????
+</t>
+  </si>
+  <si>
+    <t>2024-04-29T02:19:16+0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tạm biệt!
 </t>
   </si>
@@ -207,28 +242,24 @@
     <t>2023-08-14T13:17:13+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Tha 🤡
+    <t xml:space="preserve">Tha ??
 </t>
   </si>
   <si>
     <t>2023-12-07T07:48:22+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">😳
-</t>
-  </si>
-  <si>
     <t>2022-10-26T15:27:56+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Bên ngoài hướng ngoại nhưng tâm hồn là introverted boy 🥲
+    <t xml:space="preserve">Bên ngoài hướng ngoại nhưng tâm hồn là introverted boy ??
 </t>
   </si>
   <si>
     <t>2022-08-05T07:41:52+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Có thể nói IT là vua của mọi nghề 👉🏻👈🏻
+    <t xml:space="preserve">Có thể nói IT là vua của mọi nghề ????????
 Với người mù, IT là ánh sáng
 Với người đói, IT là lương thực
 Với người khát, IT là thức uống
@@ -245,21 +276,28 @@
     <t>2023-05-12T16:05:13+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">mê lớp này 🥱
+    <t xml:space="preserve">mê lớp này ??
 </t>
   </si>
   <si>
     <t>2023-12-22T03:59:57+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Đoàn - Hội SoICT mãi mãi trường tồn, mãi mãi phồn vinh 🥳🎉
+    <t xml:space="preserve">❤️‍??
+</t>
+  </si>
+  <si>
+    <t>2024-01-09T06:33:35+0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đoàn - Hội SoICT mãi mãi trường tồn, mãi mãi phồn vinh ????
 </t>
   </si>
   <si>
     <t>2023-02-27T13:10:26+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">💁🏻‍♂️💁🏻‍♂️💁🏻‍♂️
+    <t xml:space="preserve">????‍♂️????‍♂️????‍♂️
 </t>
   </si>
   <si>
@@ -274,21 +312,17 @@
   </si>
   <si>
     <t xml:space="preserve">Khi ta ở chỉ là nơi đất ở
-Khi ta đi đất bỗng hoá tâm hồn 💖
+Khi ta đi đất bỗng hoá tâm hồn ??
 </t>
   </si>
   <si>
     <t>2023-03-31T13:00:05+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">🫠
-</t>
-  </si>
-  <si>
     <t>2023-05-27T11:02:27+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">😮‍💨
+    <t xml:space="preserve">??‍??
 </t>
   </si>
   <si>
@@ -310,28 +344,31 @@
     <t>2023-04-02T10:57:53+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Đỉnh quá đỉnh rồi 🥹
+    <t xml:space="preserve">????
+</t>
+  </si>
+  <si>
+    <t>2024-03-27T10:04:25+0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỉnh quá đỉnh rồi ??
 </t>
   </si>
   <si>
     <t>2022-10-08T12:16:46+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Vài con ảnh đón tết 🌸✨
-📸: Người anh Đạt Kaka
+    <t>2024-05-27T06:04:11+0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vài con ảnh đón tết ??✨
+??: Người anh Đạt Kaka
 </t>
   </si>
   <si>
     <t>2024-02-07T11:03:00+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">🥰
-</t>
-  </si>
-  <si>
-    <t>2024-05-27T06:04:11+0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nhưng nhức cái đầu :&gt;
 </t>
   </si>
@@ -339,7 +376,7 @@
     <t>2023-01-21T15:18:15+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Let’s guess 🫣
+    <t xml:space="preserve">Let’s guess ??
 </t>
   </si>
   <si>
@@ -353,14 +390,14 @@
     <t>2023-01-12T08:54:20+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">K có ban cho người hướng nội à 😡
+    <t xml:space="preserve">K có ban cho người hướng nội à ??
 </t>
   </si>
   <si>
     <t>2023-06-05T02:03:18+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Tới công chiện 🥹
+    <t xml:space="preserve">Tới công chiện ??
 </t>
   </si>
   <si>
@@ -369,15 +406,15 @@
   <si>
     <t xml:space="preserve">Bắt đền đi, trả lại tâm trí đây
 Meow meow meow meow
-Trả lại tâm trí tôi đây 🤧
+Trả lại tâm trí tôi đây ??
 \_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
-[FTU x HUST] “𝐁𝐔𝐒𝐈𝐓𝐄𝐂𝐇 𝐁𝐎𝐎𝐓𝐂𝐀𝐌𝐏 - 𝐃𝐚𝐫𝐞 𝐭𝐨 𝐝𝐫𝐞𝐚𝐦, 𝐝𝐚𝐫𝐞 𝐭𝐨 𝐛𝐮𝐢𝐥𝐝” là chương trình ươm tạo được phối hợp tổ chức bởi Câu lạc bộ Sinh viên Lập trình Google GDSC-HUST; Đoàn trường Công nghệ Thông tin và Truyền thông dưới sự chỉ đạo của Đoàn ĐHBK Hà Nội và câu lạc bộ Khoa học Công nghệ trong Kinh tế và kinh doanh CTE - FTU - Đoàn trường Đại học Ngoại thương. Chương trình được tổ chức với sứ mệnh nuôi dưỡng các dự án công nghệ mới có tính ứng dụng thực tế và đem lại giá trị cao. Thí sinh được đào tạo chuyên sâu về công nghệ và kinh doanh, kết hợp trải nghiệm thực tế ở các Tập đoàn công nghệ hàng đầu để tạo ra các dự án công nghệ khả thi, tạo ra tác động cho xã hội và giá trị kinh tế.
-📌 Đăng ký ngay tại: https://busitech.gdsc.vn/
-📌 Hạn cuối đăng ký: 𝟐𝟑𝐡𝟓𝟗 ngày 𝟎𝟐/𝟎𝟒/𝟐𝟎𝟐𝟑
+[FTU x HUST] “???????????????? ???????????????? - ???????? ???? ??????????, ???????? ???? ??????????” là chương trình ươm tạo được phối hợp tổ chức bởi Câu lạc bộ Sinh viên Lập trình Google GDSC-HUST; Đoàn trường Công nghệ Thông tin và Truyền thông dưới sự chỉ đạo của Đoàn ĐHBK Hà Nội và câu lạc bộ Khoa học Công nghệ trong Kinh tế và kinh doanh CTE - FTU - Đoàn trường Đại học Ngoại thương. Chương trình được tổ chức với sứ mệnh nuôi dưỡng các dự án công nghệ mới có tính ứng dụng thực tế và đem lại giá trị cao. Thí sinh được đào tạo chuyên sâu về công nghệ và kinh doanh, kết hợp trải nghiệm thực tế ở các Tập đoàn công nghệ hàng đầu để tạo ra các dự án công nghệ khả thi, tạo ra tác động cho xã hội và giá trị kinh tế.
+?? Đăng ký ngay tại: https://busitech.gdsc.vn/
+?? Hạn cuối đăng ký: ?????????? ngày ????/????/????????
 Mọi thông tin chi tiết vui lòng liên hệ/Contact Information:
-📞 Hotline: 0942942968 (Mr Minh)
-📩 Email: BusiTech.bootcamp@gmail.com
-📭 Fanpage: BusiTech Bootcamp
+?? Hotline: 0942942968 (Mr Minh)
+?? Email: BusiTech.bootcamp@gmail.com
+?? Fanpage: BusiTech Bootcamp
 #HUST #FTU #SOICT #CTE #GDSC #cuocthi #kinhdoanh #sangtao
 </t>
   </si>
@@ -385,18 +422,18 @@
     <t>2023-03-15T15:48:16+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Không về nhà được 😞 nhớ quá :&lt;
+    <t xml:space="preserve">Không về nhà được ?? nhớ quá :&lt;
 </t>
   </si>
   <si>
     <t>2023-06-14T16:11:58+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Để bé Cà Chua chạy deadlines hộ còn lánh đời 😖
+    <t xml:space="preserve">Để bé Cà Chua chạy deadlines hộ còn lánh đời ??
 —-----------------------------------------------
 ĐẠI HỘI ĐẠI BIỂU HỘI SINH VIÊN ĐẠI HỌC BÁCH KHOA HÀ NỘI LẦN THỨ XXIII, NHIỆM KỲ 2023-2025
 ⏰ Thời gian: Chủ nhật ngày 21/5/2023
-📍 Địa điểm: Hội trường C2 - Đại học Bách khoa Hà Nội
+?? Địa điểm: Hội trường C2 - Đại học Bách khoa Hà Nội
 #Đại_Hội_Đại_Biểu_Nhiệm_kỳ_2023\_2025
 #HSVBKHN
 </t>
@@ -405,31 +442,23 @@
     <t>2023-05-13T14:42:31+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Mãi luỵ 🫶🏻
+    <t xml:space="preserve">Mãi luỵ ????
 </t>
   </si>
   <si>
     <t>2023-08-25T13:04:07+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Bố của đỉnh 💪🏻
+    <t xml:space="preserve">Bố của đỉnh ????
 </t>
   </si>
   <si>
     <t>2023-04-29T13:11:54+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">👍
-</t>
-  </si>
-  <si>
     <t>2023-09-23T05:20:53+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">🥴
-</t>
-  </si>
-  <si>
     <t>2022-11-24T02:51:01+0000</t>
   </si>
   <si>
@@ -447,31 +476,69 @@
     <t>2022-10-27T06:43:55+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Nội dung này nóng hơn cả thời tiết mùa hè Hà Nội không điều hoà 🫠
+    <t xml:space="preserve">Nội dung này nóng hơn cả thời tiết mùa hè Hà Nội không điều hoà ??
 —————————
 Hội trại Khối Sinh viên năm nhất K67 - Pantheum
-🕰️ Thời gian (dự kiến): 8h00, ngày 01/07/2023 (Thứ Bảy)
-📌 Địa điểm: Sân C9, Đại học Bách khoa Hà Nội
+??️ Thời gian (dự kiến): 8h00, ngày 01/07/2023 (Thứ Bảy)
+?? Địa điểm: Sân C9, Đại học Bách khoa Hà Nội
 #BCSNNK67 #HOITRAIK67 #Pantheum #K67 #HUST 
 —————————
 Ban Cán sự Đoàn - Hội Khối Sinh viên năm nhất K67
-🔗 Fanpage: Hội trại Khối Sinh viên K67 - Pantheum
-📩 Email: bcsnnk67.hust@gmail.com
-📞 Phó trưởng BTC: 0823 865 038 - Trần Việt Anh
+?? Fanpage: Hội trại Khối Sinh viên K67 - Pantheum
+?? Email: bcsnnk67.hust@gmail.com
+?? Phó trưởng BTC: 0823 865 038 - Trần Việt Anh
 </t>
   </si>
   <si>
     <t>2023-06-02T14:09:40+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Géc gô 🎊
+    <t xml:space="preserve">Géc gô ??
 </t>
   </si>
   <si>
     <t>2022-11-29T12:16:26+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Yêu Sami nhất 💖 Sami độ iem :&gt;
+    <t xml:space="preserve">Che mặt cho đẹp trai ??
+---------------------------------------------------------
+?? [TẬP HUẤN CÁN BỘ HỘI SINH VIÊN CHỦ CHỐT CẤP ĐẠI HỌC NĂM HỌC 2023 - 2024] ??
+?? HỘI SINH VIÊN ĐẠI HỌC BÁCH KHOA HÀ NỘI ??
+“5 năm học không dài như bạn nghĩ
+Hãy chuyển động cùng chúng tôi!”
+#taphuancbhsinhvienchuchotcapdaihoc
+#HUST
+#HSVĐHBKHN
+</t>
+  </si>
+  <si>
+    <t>2024-01-02T14:40:02+0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ép dầu ép mỡ, ai nỡ ép không cho đi Chào Tân 2023 ??
+-----------------------------------------
+CHUỖI SỰ KIỆN CHÀO TÂN SINH VIÊN BÁCH KHOA 2023
+⏰ Thời gian: 18/11/2023.
+??️ Timeline chương trình:
+06h30 - 08h00: Cuộc thi chạy bộ UNI RUN 2023.
+08h30 - 16h30: Chuỗi hoạt động sáng tạo, trải nghiệm nhận quà tại các gian trại.
+09h00 - 10h30: Chuỗi trò chơi “Screw it, let’s do it!“
+10h30 - 11h30: Chương trình giao lưu văn nghệ.
+15h00 - 17h00: Vòng bán kết cuộc thi “Tìm kiếm tài năng Âm nhạc &amp; Vũ đạo.”
+18h00 - 22h00: Đêm Đại nhạc hội Chào tân sinh viên.
+-----------------------------------------
+?? Theo dõi sự kiện ngay tại: https://www.facebook.com/chaotansinhvien.HUST
+-----------------------------------------
+#HoiSinhVienVietNam #VSDS #HaNoi
+#Honda #HondaVietNam #HondaUNITOUR2023
+#ChaotansinhvienBK2023 #HUSTFest
+</t>
+  </si>
+  <si>
+    <t>2023-11-14T15:13:15+0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yêu Sami nhất ?? Sami độ iem :&gt;
 </t>
   </si>
   <si>
@@ -479,17 +546,17 @@
   </si>
   <si>
     <t xml:space="preserve">Có công mài sắt
-Có ngày gặp nhau ở Chào tân 🫣
+Có ngày gặp nhau ở Chào tân ??
 \_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
-💥 [THAY FRAME - HƯỞNG ỨNG NGÀY HỘI “CHÀO TÂN SINH VIÊN K67 - ĐƠN SẮC”!!!] 💥
+?? [THAY FRAME - HƯỞNG ỨNG NGÀY HỘI “CHÀO TÂN SINH VIÊN K67 - ĐƠN SẮC”!!!] ??
 Sự kiện "Chào tân sinh viên K67 - Đơn sắc" được tổ chức bởi Đoàn Thanh niên - Hội Sinh viên Trường Công nghệ Thông tin và Truyền thông (SOICT), Đoàn Thanh niên - Hội Sinh viên Trường Cơ khí (SME) và Viện Công nghệ Sinh học và Công nghệ Thực phẩm (SBFT) sắp diễn ra, hứa hẹn sẽ đem tới những trải nghiệm không thể quên cho các bạn tân sinh viên K67.
-🎉 Để cổ vũ cho Trường/Viện mình và thể hiện tinh thần máu lửa của sinh viên Bách khoa, các bạn hãy thay frame cho ảnh đại diện Facebook nhé!
-🌟 Các bước thay frame như sau:
+?? Để cổ vũ cho Trường/Viện mình và thể hiện tinh thần máu lửa của sinh viên Bách khoa, các bạn hãy thay frame cho ảnh đại diện Facebook nhé!
+?? Các bước thay frame như sau:
 1️⃣ Truy cập đường link: https://twb.nz/chaotan-donsac
-2️⃣ Nhấn “Choose a photo”. Chọn một bức ảnh yêu thích 🖼️
+2️⃣ Nhấn “Choose a photo”. Chọn một bức ảnh yêu thích ??️
 3️⃣ Chỉnh sửa (nếu muốn) rồi chọn “Download”
 4️⃣ Đặt làm ảnh đại diện Facebook
-Sẽ có gì chờ đón bạn tại Chào tân sinh viên K67 - Đơn sắc? 🤔 Hãy nhấn theo dõi Page, bật thông báo và bấm “Xem trước” để được bật mí sớm nhất nhé! 😉
+Sẽ có gì chờ đón bạn tại Chào tân sinh viên K67 - Đơn sắc? ?? Hãy nhấn theo dõi Page, bật thông báo và bấm “Xem trước” để được bật mí sớm nhất nhé! ??
 \_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
 Chào Tân sinh viên K67 - Đơn sắc
 ‣ Ban tổ chức: 
@@ -506,7 +573,7 @@
     <t>2022-11-03T14:47:55+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Địa điểm tụ tập bốc phét vô cùng hợp lí cho dịp Tết này ạ 🌝
+    <t xml:space="preserve">Địa điểm tụ tập bốc phét vô cùng hợp lí cho dịp Tết này ạ ??
 </t>
   </si>
   <si>
@@ -514,7 +581,7 @@
   </si>
   <si>
     <t xml:space="preserve">Anh chỉ nhận tương tác
-Mong em đừng tương tư 🥹
+Mong em đừng tương tư ??
 </t>
   </si>
   <si>
@@ -524,7 +591,14 @@
     <t>2022-12-28T05:14:43+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Chắc cũng đúng ha 👉🏻👈🏻
+    <t xml:space="preserve">Mê mể mề mê
+</t>
+  </si>
+  <si>
+    <t>2023-11-10T14:14:38+0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chắc cũng đúng ha ????????
 </t>
   </si>
   <si>
@@ -538,7 +612,7 @@
     <t>2023-06-09T03:33:32+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">sale up to 80% off mặt hàng áo dài xanh nõn chuối 👍🏻
+    <t xml:space="preserve">sale up to 80% off mặt hàng áo dài xanh nõn chuối ????
 </t>
   </si>
   <si>
@@ -552,7 +626,7 @@
     <t>2022-06-12T13:28:32+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Anh trao em con tim sao em trao cho anh “một cú lừa” 🤧
+    <t xml:space="preserve">Anh trao em con tim sao em trao cho anh “một cú lừa” ??
 </t>
   </si>
   <si>
@@ -560,15 +634,15 @@
   </si>
   <si>
     <t xml:space="preserve">Người cầm thước làm toán
-Kẻ hết đời học sinh 🎓
-📸: PHIÊU Studio - Chụp ảnh kỷ yếu
+Kẻ hết đời học sinh ??
+??: PHIÊU Studio - Chụp ảnh kỷ yếu
 </t>
   </si>
   <si>
     <t>2022-06-11T13:51:18+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Mùi khét ở đâu v ta 🫣
+    <t xml:space="preserve">Mùi khét ở đâu v ta ??
 </t>
   </si>
   <si>
@@ -589,42 +663,16 @@
     <t>2023-01-10T04:59:03+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">💕
-</t>
-  </si>
-  <si>
     <t>2023-03-24T14:35:02+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Đắm say lòng người 😗
+    <t xml:space="preserve">Đắm say lòng người ??
 </t>
   </si>
   <si>
     <t>2023-08-26T17:34:05+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Lạc trên bản đồ vào một ngày đầy nắng 🌤️
-</t>
-  </si>
-  <si>
-    <t>2024-03-09T15:10:16+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Che mặt cho đẹp trai 🫢
----------------------------------------------------------
-🔥 [TẬP HUẤN CÁN BỘ HỘI SINH VIÊN CHỦ CHỐT CẤP ĐẠI HỌC NĂM HỌC 2023 - 2024] 🔥
-🔥 HỘI SINH VIÊN ĐẠI HỌC BÁCH KHOA HÀ NỘI 🔥
-“5 năm học không dài như bạn nghĩ
-Hãy chuyển động cùng chúng tôi!”
-#taphuancbhsinhvienchuchotcapdaihoc
-#HUST
-#HSVĐHBKHN
-</t>
-  </si>
-  <si>
-    <t>2024-01-02T14:40:02+0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mùng 1 chấn động ✨
 </t>
   </si>
@@ -632,28 +680,21 @@
     <t>2023-01-22T11:15:04+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">chả vui 🤌🏻
-</t>
-  </si>
-  <si>
-    <t>2024-04-18T13:06:25+0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Update: Đã Đóng Form
-Hello các bạn 🙆🏻‍♂️
+Hello các bạn ????‍♂️
 Một mùa tuyển sinh mới đã bắt đầu, và cổng đăng kí Xét tuyển tài năng của Đại học Bách khoa Hà Nội cũng chuẩn bị đóng lại rồi. Các tiêu chí, thang điểm của phương thức XTTN diện 1.3 mới được hoàn thiện từ K66, tức là đến mùa tuyển sinh năm nay mới là năm thứ ba phương thức này được định lượng hoá. Cũng chính vì vậy, việc chuẩn bị cho vòng phỏng vấn khá là khó khăn và luôn là vấn đề với các bạn học sinh; vừa vì phần lớn chúng ta đều chưa biết phỏng vấn sẽ diễn ra như thế nào, phần vì không biết chuẩn bị những gì để có một buổi phỏng vấn thành công.
 Và đó chính là lí do tại sao chúng mình ở đây và có sự xuất hiện của bài viết này. Chúng mình hi vọng rằng, với một chút kinh nghiệm, công sức nhỏ của bọn mình sẽ hỗ trợ tổ chức buổi phỏng vấn giả định để phỏng vấn từng bạn, sau đó góp ý, sắp xếp câu trả lời để cho các bạn tự tin là chính mình, và hoàn thành tốt nhất vòng phỏng vấn này.
-📍 Còn chần chừ gì nữa, hãy điền ngay link đăng kí phỏng vấn thử HOÀN TOÀN MIỄN PHÍ tại link: https://forms.microsoft.com/r/RrpVjZSqCY.
+?? Còn chần chừ gì nữa, hãy điền ngay link đăng kí phỏng vấn thử HOÀN TOÀN MIỄN PHÍ tại link: https://forms.microsoft.com/r/RrpVjZSqCY.
 ‼️ Hạn đóng form: 23:59, ngày 18/5/2023 hoặc sớm hơn nết hết slot (chú ý điện thoại, FB và email nhé, vì chúng mình sẽ bỏ qua nếu không nhận được phản hồi kịp thời từ bạn).
-🥺 Do nhân lực và thời gian có hạn nên chúng mình chỉ có thể hỗ trợ một số lượng nhất định :&lt; Tuy nhiên, các bạn có thể inbox chúng mình để hỏi bất cứ thông tin gì cần thiết về trường và các ngành học nha.
-✎ 𝗙𝗔𝗤:
-👀 Chúng mình là ai và chúng mình có gì?
-👉 Chúng mình chỉ đơn giản là sinh viên Bách khoa, những người đã có kinh nghiệm từng phỏng vấn ở các mùa tuyển sinh trước. Chúng mình không có gì nhiều, chỉ có "19 điểm phỏng vấn là thấp nhất" thôi :))
-👀 Chúng mình hỗ trợ các bạn như thế nào?
-👉 Chúng mình sẽ lắng nghe các bạn trả lời những câu hỏi điển hình của thầy cô qua các năm, mở rộng câu hỏi đó dựa trên câu trả lời của các bạn để có một cảm giác như thi thật. Bên cạnh đó, chúng mình cũng sẽ lắng nghe và gợi ý, sắp xếp các ý của các bạn lại theo một thứ tự logic nhất tăng tính truyền cảm và thuyết phục.
-👀 Vậy các bạn cần chuẩn bị gì?
-👉 Các bạn hãy chuẩn bị một tâm hồn thật đẹp, một số kiến thức cơ bản về trường, về ngành học, về lí do chọn ngành và dự định của bản thân trong tương lai. Đừng cố gắng học thuộc, đừng cố gắng nhớ tất cả những gì mình chuẩn bị. Hãy tự tin là chính mình để có thể thoải mái nhất nhé.
-🎉 Chúc các bạn có một kì thi cuối cùng của thời học sinh thật trọn vẹn và thành công. Hẹn gặp lại các bạn tại Bách khoa 🎉
+?? Do nhân lực và thời gian có hạn nên chúng mình chỉ có thể hỗ trợ một số lượng nhất định :&lt; Tuy nhiên, các bạn có thể inbox chúng mình để hỏi bất cứ thông tin gì cần thiết về trường và các ngành học nha.
+✎ ??????:
+?? Chúng mình là ai và chúng mình có gì?
+?? Chúng mình chỉ đơn giản là sinh viên Bách khoa, những người đã có kinh nghiệm từng phỏng vấn ở các mùa tuyển sinh trước. Chúng mình không có gì nhiều, chỉ có "19 điểm phỏng vấn là thấp nhất" thôi :))
+?? Chúng mình hỗ trợ các bạn như thế nào?
+?? Chúng mình sẽ lắng nghe các bạn trả lời những câu hỏi điển hình của thầy cô qua các năm, mở rộng câu hỏi đó dựa trên câu trả lời của các bạn để có một cảm giác như thi thật. Bên cạnh đó, chúng mình cũng sẽ lắng nghe và gợi ý, sắp xếp các ý của các bạn lại theo một thứ tự logic nhất tăng tính truyền cảm và thuyết phục.
+?? Vậy các bạn cần chuẩn bị gì?
+?? Các bạn hãy chuẩn bị một tâm hồn thật đẹp, một số kiến thức cơ bản về trường, về ngành học, về lí do chọn ngành và dự định của bản thân trong tương lai. Đừng cố gắng học thuộc, đừng cố gắng nhớ tất cả những gì mình chuẩn bị. Hãy tự tin là chính mình để có thể thoải mái nhất nhé.
+?? Chúc các bạn có một kì thi cuối cùng của thời học sinh thật trọn vẹn và thành công. Hẹn gặp lại các bạn tại Bách khoa ??
 </t>
   </si>
   <si>
@@ -667,21 +708,21 @@
     <t>2023-02-07T11:47:59+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">trượt…
-</t>
-  </si>
-  <si>
-    <t>2024-06-14T06:29:33+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mờ ê mêêêê ❤️‍🔥 SoICT mãi đỉnh 💪🏻
+    <t xml:space="preserve">Mờ ê mêêêê ❤️‍?? SoICT mãi đỉnh ????
 </t>
   </si>
   <si>
     <t>2022-11-12T11:55:20+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Rất là cầu vồng 🌈
+    <t xml:space="preserve">xin 1 cái hố để trốn ??
+</t>
+  </si>
+  <si>
+    <t>2024-04-16T13:45:13+0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rất là cầu vồng ??
 </t>
   </si>
   <si>
@@ -695,164 +736,6 @@
     <t>2023-04-30T09:54:25+0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Còn phải nói ạ 😮‍💨
-</t>
-  </si>
-  <si>
-    <t>2023-04-08T10:51:17+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lạy trúa :)
-</t>
-  </si>
-  <si>
-    <t>2023-06-15T13:14:54+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người giống người
-</t>
-  </si>
-  <si>
-    <t>2023-09-29T13:49:58+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No face, no case
-</t>
-  </si>
-  <si>
-    <t>2023-07-14T14:00:12+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">🫶🏻
-</t>
-  </si>
-  <si>
-    <t>2024-03-27T10:04:25+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Số 05 La Mã?
-\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
-💫 CHUNG KHẢO SVBK 2023 - SINH VIÊN “NẾP NGHĨ - NẾP NGƯỜI” 💫
-  🌟 SVBK 2023 quay trở lại tạo ra sân chơi cho các bạn sinh viên Đại học Bách khoa Hà Nội thể hiện nét duyên dáng, trí sáng tạo và nhiệt huyết tuổi trẻ của mỗi con người Bách khoa. Trải qua vòng sơ khảo tuyển chọn gay cấn với nhiều màu sắc riêng mang nét đẹp của từng đội chơi, xây dựng và lan toả nét đẹp văn hoá của sinh viên Bách khoa đến tất cả mọi người, và đã chọn ra 4 màu sắc nổi bật nhất để đồng hành cùng vòng chung khảo SVBK 2023. Hãy đồng hành, cổ vũ cho các đội thi tham dự vòng chung khảo SVBK nhé! 📣📣
-  📌 Thời gian: 18h00, 24/04/2023
-  📌 Địa điểm: Hội trường C2, Đại học Bách khoa Hà Nội
-—————————————————————
-ĐOÀN THANH NIÊN ĐẠI HỌC BÁCH KHOA HÀ NỘI
-► Email: dtn@hust.edu.vn
-► Website: http://svbk.hust.edu.vn/
-► Fanpage: https://www.facebook.com/doanthanhnienbkhn
-#ĐHBKHN
-#SVBK2023
-#Sinhviennepnghinepnguoi
-</t>
-  </si>
-  <si>
-    <t>2023-04-20T13:07:57+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cbi nhức cái cột sống 🥹
-</t>
-  </si>
-  <si>
-    <t>2022-12-03T13:52:14+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teachers of the year 🫶🏻
-</t>
-  </si>
-  <si>
-    <t>2023-08-17T04:02:17+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yêu cả người NB nữa nhé ☺️
-</t>
-  </si>
-  <si>
-    <t>2023-05-04T09:18:03+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Còn phải nói?
-</t>
-  </si>
-  <si>
-    <t>2023-07-04T14:49:05+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chúc mừng các bạn đã vượt qua 7749 khổ ải 😞
-</t>
-  </si>
-  <si>
-    <t>2023-05-18T13:16:17+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">🫡🇻🇳
-</t>
-  </si>
-  <si>
-    <t>2023-09-02T02:12:45+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 + 1 = 100 👶🏻👧🏻
-</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:00:09+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lễ tình nhân độc thân nhưng vẫn có quà :&gt;
-\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
-[MỞ ĐƠN ĐĂNG KÝ WORKSHOP: TIỀM NĂNG &amp; CƠ HỘI NGÀNH CÔNG NGHIỆP GAME]  
-“Kìa bóng dáng ai vụt qua đây vụt qua đây” 🎶 
-Liệu có phải quà của SoICT không nhỉ? 🎀
-🪄 Workshop “Tiềm năng &amp; Cơ hội ngành Công nghiệp Game” chính là món quà mà chúng mình muốn gửi tới các bạn trong dịp valentine này đó!
-Để nhận được món quà tuyệt vời này các bạn hãy đăng kí tại link: https://forms.gle/RWc8ZJ63gz8k3vWN9 từ 14/02/2023 đến 22/02/2023 nha 💕
-Đây là nơi trao đổi thông tin, giải đáp các thắc mắc của các bạn sinh viên về lĩnh vực “Lập trình Game”. Liệu đây có phải là một lĩnh vực mang đầy tiềm năng? Muốn theo đuổi nó thì cần những gì? 
-👉🏻 Buổi workshop “Tiềm năng và cơ hội lập trình Game” sẽ giải đáp hết những thắc mắc, giúp chúng ta có một cái nhìn tổng quan và thực tế về ngành nghề, là nơi giao lưu, chia sẻ về đam mê, tiếp cận với cơ hội việc làm của chính lĩnh vực này từ SONAT GAME STUDIO - công ty sản xuất game mobile toàn cầu; một trong những doanh nghiệp đi đầu lĩnh vực Puzzle Game tại Việt Nam ngày nay. Hiện tại, Sonat đang là đối tác chiến lược bền vững của: Google, Apple, Facebook, Tiktok và Unity.
-✨ Thông tin chi tiết của buổi Workshop:
-- Thời gian: 18h00, ngày 23/02/2023
-- Địa điểm: Tầng 4, toà B1 - Đại học Bách khoa Hà Nội
-Hãy nhanh tay đăng kí để không bỏ lỡ cơ hội được trải nghiệm tại workshop “Tiềm năng &amp; Cơ hội ngành Công nghiệp Game” và mang về cho mình những phần quà thú vị nhé! 🎈
-\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_\_
-Đoàn Thanh niên - Hội Sinh viên Trường Công nghệ Thông tin và Truyền thông
-📬 Page: facebook.com/soict.hust
-</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:05:46+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yên bình!
-</t>
-  </si>
-  <si>
-    <t>2023-10-07T08:25:10+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yêu nước, yêu cả trường luôn 😗
-</t>
-  </si>
-  <si>
-    <t>2023-07-26T19:08:57+0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công đức vô lượng 🙏🏻
---------------------------------------------------
-Cùng nhau khám phá thế giới Hội Sinh viên tại: https://tinyurl.com/tnshsvdhbkhn
-#Tuyennhansu2023 #HUST #REGENERATION #HSVDHBKHanoi --------------------------------------------------
-🔥TUYỂN NHÂN SỰ HỘI SINH VIÊN 2023 REGENERATION🔥
- 📌Đăng kí tại đây: https://tinyurl.com/tnshsvdhbkhn
- 🔹Vòng đơn: 16-24/09
- 🔹Vòng test: 26-27/09
- 🔹Vòng phỏng vấn: 30/9
- 📍Group tuyển nhân sự 2023: https://www.facebook.com/groups/tnshsvdhbkhn2023/
- 📍Tài liệu TNS HSV 2023: https://tinyurl.com/tailieu2023
- 📍Tìm hiểu thêm về Hội Sinh viên tại: http://www.facebook.com/hoisinhvienbkhn
-</t>
-  </si>
-  <si>
-    <t>2023-09-16T14:06:04+0000</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -1483,7 +1366,7 @@
     <t>102423882134348</t>
   </si>
   <si>
-    <t>𝚗𝚘𝚋𝚘𝚍𝚢 𝚞𝚗𝚍𝚎𝚛𝚜𝚝𝚊𝚗𝚍</t>
+    <t>???????????? ????????????????????</t>
   </si>
   <si>
     <t>379758702633602</t>
@@ -1555,16 +1438,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.37109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="27.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="25.796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2009,10 +1892,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
         <v>66</v>
-      </c>
-      <c r="D32" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="33">
@@ -2023,10 +1906,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
         <v>68</v>
-      </c>
-      <c r="D33" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34">
@@ -2037,10 +1920,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
         <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35">
@@ -2051,10 +1934,10 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
         <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36">
@@ -2065,10 +1948,10 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
         <v>74</v>
-      </c>
-      <c r="D36" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -2079,10 +1962,10 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
         <v>76</v>
-      </c>
-      <c r="D37" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -2093,10 +1976,10 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
         <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -2107,10 +1990,10 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
         <v>80</v>
-      </c>
-      <c r="D39" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40">
@@ -2121,10 +2004,10 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
         <v>82</v>
-      </c>
-      <c r="D40" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41">
@@ -2135,10 +2018,10 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
@@ -2149,10 +2032,10 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -2163,10 +2046,10 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
@@ -2177,10 +2060,10 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
@@ -2191,10 +2074,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
@@ -2205,10 +2088,10 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
@@ -2219,10 +2102,10 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
@@ -2233,10 +2116,10 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49">
@@ -2247,10 +2130,10 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
@@ -2261,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51">
@@ -2275,10 +2158,10 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
@@ -2289,10 +2172,10 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
@@ -2303,10 +2186,10 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
@@ -2317,10 +2200,10 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
@@ -2331,10 +2214,10 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
@@ -2345,10 +2228,10 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57">
@@ -2359,10 +2242,10 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
@@ -2373,10 +2256,10 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59">
@@ -2387,10 +2270,10 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60">
@@ -2401,10 +2284,10 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61">
@@ -2415,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62">
@@ -2429,10 +2312,10 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
@@ -2443,10 +2326,10 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64">
@@ -2457,10 +2340,10 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65">
@@ -2471,10 +2354,10 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
@@ -2485,10 +2368,10 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
@@ -2499,10 +2382,10 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68">
@@ -2513,10 +2396,10 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69">
@@ -2527,10 +2410,10 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70">
@@ -2541,10 +2424,10 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
@@ -2555,10 +2438,10 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
@@ -2569,10 +2452,10 @@
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
@@ -2583,10 +2466,10 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -2597,10 +2480,10 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
@@ -2611,10 +2494,10 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76">
@@ -2625,10 +2508,10 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77">
@@ -2639,10 +2522,10 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78">
@@ -2653,10 +2536,10 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -2667,10 +2550,10 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -2681,10 +2564,10 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81">
@@ -2695,10 +2578,10 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82">
@@ -2709,10 +2592,10 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D82" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83">
@@ -2723,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D83" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84">
@@ -2737,10 +2620,10 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85">
@@ -2751,10 +2634,10 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
@@ -2765,10 +2648,10 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D86" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87">
@@ -2779,10 +2662,10 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88">
@@ -2793,10 +2676,10 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D88" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89">
@@ -2807,10 +2690,10 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -2821,10 +2704,10 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
@@ -2835,10 +2718,10 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="D91" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
@@ -2849,10 +2732,10 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
@@ -2863,10 +2746,10 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94">
@@ -2877,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="D94" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95">
@@ -2891,10 +2774,10 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D95" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96">
@@ -2905,10 +2788,10 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D96" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97">
@@ -2919,10 +2802,10 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="D97" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98">
@@ -2933,10 +2816,10 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D98" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99">
@@ -2947,10 +2830,10 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="D99" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100">
@@ -2961,10 +2844,10 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D100" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101">
@@ -2975,10 +2858,10 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="D101" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +2871,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2996,90 +2879,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +2972,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3097,24 +2980,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -3125,10 +3008,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -3139,10 +3022,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -3153,10 +3036,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3167,10 +3050,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3181,24 +3064,24 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -3209,10 +3092,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -3223,38 +3106,38 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3265,10 +3148,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3279,24 +3162,24 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -3307,10 +3190,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -3321,24 +3204,24 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -3349,10 +3232,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3363,10 +3246,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -3377,10 +3260,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -3391,52 +3274,52 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -3447,10 +3330,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -3461,80 +3344,80 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="C28" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D28" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="C29" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D29" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D30" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -3545,10 +3428,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -3559,10 +3442,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3573,52 +3456,52 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -3629,10 +3512,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -3643,24 +3526,24 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -3671,10 +3554,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="B42" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -3685,52 +3568,52 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="C44" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D44" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="B45" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -3741,10 +3624,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -3755,10 +3638,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="B48" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -3769,108 +3652,108 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="B49" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D49" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D50" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="B51" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="C51" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D51" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="B52" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="C52" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B53" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D53" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="B54" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="C54" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D54" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D55" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="B56" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -3881,24 +3764,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="B58" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -3909,122 +3792,122 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="B59" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="C59" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="B60" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="B61" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="C61" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="B62" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="B63" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D63" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D64" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D65" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="B66" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="C66" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D66" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="B67" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -4035,52 +3918,52 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="B68" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="C68" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="B70" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="B71" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -4091,38 +3974,38 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="B72" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="B73" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D73" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B74" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -4133,24 +4016,24 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B75" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D75" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B76" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -4161,10 +4044,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B77" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -4175,10 +4058,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="B78" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
@@ -4189,24 +4072,24 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="B79" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="C79" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D79" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="B80" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -4217,24 +4100,24 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="B81" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="C81" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="B82" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -4245,38 +4128,38 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="B83" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D83" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="B84" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="C84" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D84" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="B85" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -4287,10 +4170,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="B86" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -4301,10 +4184,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="B87" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -4315,38 +4198,38 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="B88" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="C88" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="B89" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D89" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="B90" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -4357,10 +4240,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="B91" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -4371,108 +4254,108 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="B92" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D92" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="B93" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="C93" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D93" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="B94" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="C94" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D94" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="B95" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D95" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="B96" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="C96" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D96" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="B97" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="C97" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D97" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="B98" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="C98" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D98" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="B99" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -4483,10 +4366,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="B100" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -4497,16 +4380,16 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="B101" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D101" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
